--- a/excelsheet/findingbikes.xlsx
+++ b/excelsheet/findingbikes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cognizantonline-my.sharepoint.com/personal/2304055_cognizant_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2304055\eclipse-workspace\Hackathon-Project-IdentifyNewBikes-main\Hackathon-Project-IdentifyNewBikes-main\HackathonProjectIdentify\excelsheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60FA00B2-D55D-41D6-B0C2-C685D53184E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067BDF3E-641D-4847-81AF-F6B6DA54CF45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C4F40DD3-CDAC-4E0A-A04E-D772A3229304}"/>
   </bookViews>
@@ -36,70 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
-  <si>
-    <t>Honda CRF300L</t>
-  </si>
-  <si>
-    <t>Honda Activa Electric</t>
-  </si>
-  <si>
-    <t>Honda Forza 350</t>
-  </si>
-  <si>
-    <t>Honda CB350 Cruiser</t>
-  </si>
-  <si>
-    <t>Honda CB1000R</t>
-  </si>
-  <si>
-    <t>Honda Activa 7G</t>
-  </si>
-  <si>
-    <t>Honda CB500F</t>
-  </si>
-  <si>
-    <t>Honda PCX160</t>
-  </si>
-  <si>
-    <t>Honda Rebel 1100</t>
-  </si>
-  <si>
-    <t>Honda Rebel 500</t>
-  </si>
-  <si>
-    <t>Honda CL500 Scrambler</t>
-  </si>
-  <si>
-    <t>Honda CBR500R</t>
-  </si>
-  <si>
-    <t>Honda CBR150R</t>
-  </si>
-  <si>
-    <t>Honda Rebel 300</t>
-  </si>
-  <si>
-    <t>3.30</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>3.70</t>
-  </si>
-  <si>
-    <t>2.30</t>
-  </si>
-  <si>
-    <t>Launch Date : Apr 2024</t>
-  </si>
-  <si>
-    <t>1.20</t>
-  </si>
-  <si>
-    <t>1.70</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="16">
   <si>
     <t>Honda CRF300L  3.30 Lakh  Launch Date : 30 Mar 2024</t>
   </si>
@@ -123,6 +60,30 @@
   </si>
   <si>
     <t>Honda Rebel 300  2.30 Lakh  Launch Date : Unrevealed</t>
+  </si>
+  <si>
+    <t>Honda CRF300L  3.30 Lakh  Expected Launch Date : 30 Mar 2024</t>
+  </si>
+  <si>
+    <t>Honda Activa Electric  1.10 Lakh  Alert Me When Launched</t>
+  </si>
+  <si>
+    <t>Honda Forza 350  3.70 Lakh  Expected Launch : Mar 2024</t>
+  </si>
+  <si>
+    <t>Honda CB350 Cruiser  2.30 Lakh  Alert Me When Launched</t>
+  </si>
+  <si>
+    <t>Honda Activa 7G  79,000 thousand Alert Me When Launched</t>
+  </si>
+  <si>
+    <t>Honda PCX160  1.20 Lakh  Alert Me When Launched</t>
+  </si>
+  <si>
+    <t>Honda CBR150R  1.70 Lakh  Expected Launch : Apr 2024</t>
+  </si>
+  <si>
+    <t>Honda Rebel 300  2.30 Lakh  Alert Me When Launched</t>
   </si>
 </sst>
 </file>
@@ -475,80 +436,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD49CC4-1F69-4565-B8DE-ACA5D2160D34}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="s" s="0">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" t="s" s="0">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
